--- a/SuppXLS/Scen_ELC_UnitCommitment.xlsx
+++ b/SuppXLS/Scen_ELC_UnitCommitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D89A213-F77E-4340-B638-96C294F5F312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D1E3EB-0E74-473C-BBC2-D7280A1DAD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>Year</t>
   </si>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>ACT_CSTUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPPCoa*,EPPPea*,EPPDIS*,EPPBIO*,EPPMSW*,EPPGAS*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,10 +192,12 @@
 ACT_LOSPL(r,v,p,’LO’) ), below which the efficiency
 losses are assumed to occur. Default value is 0.6. Unit:
 fraction of installed capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPPCoa*,EPPPea*,EPPDIS*,EPPBIO*,EPPMSW*,EPPGAS*</t>
+  </si>
+  <si>
+    <t>Minimum stable operating level of online capacity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load level with no partial load efficiency loss </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,36 +579,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:M19"/>
+  <dimension ref="B2:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="53.53125" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="95" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:16">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:16">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -637,9 +643,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:16">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -666,9 +672,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:16">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -692,9 +698,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:16">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -718,9 +724,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:16">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -744,9 +750,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:16">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -770,9 +776,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:16">
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -793,9 +799,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:16">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -822,9 +828,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:16">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -848,9 +854,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:16">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -874,9 +880,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:16">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -888,9 +894,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:16">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -917,9 +923,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:16">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -943,9 +949,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:16">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -954,7 +960,7 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
         <v>38</v>
@@ -968,10 +974,13 @@
       <c r="M16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -998,9 +1007,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:15">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -1021,9 +1030,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:15">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
@@ -1035,13 +1044,16 @@
         <v>0.68</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>0.68</v>
       </c>
       <c r="M19" t="s">
         <v>49</v>
+      </c>
+      <c r="O19" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
